--- a/at-project-template/src/test/resources/users.xlsx
+++ b/at-project-template/src/test/resources/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mai Hoang Lan\IVIETTECH\AUTOMATION_TESTING\at-project-template\at-project-template\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE3028-9A81-4EB7-B92F-1F4C58AE05EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EDE182-0FC7-40BF-9720-3EDEA9BE7CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E78D5C96-D697-47EB-A166-A13FF6F6FF77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>email</t>
   </si>
@@ -44,19 +44,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>maihoanglan1997@gmail.com</t>
   </si>
   <si>
     <t>M@il@n997</t>
-  </si>
-  <si>
-    <t>user123</t>
-  </si>
-  <si>
-    <t>Abc123123</t>
   </si>
 </sst>
 </file>
@@ -423,7 +414,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,29 +433,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/at-project-template/src/test/resources/users.xlsx
+++ b/at-project-template/src/test/resources/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mai Hoang Lan\IVIETTECH\AUTOMATION_TESTING\at-project-template\at-project-template\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EDE182-0FC7-40BF-9720-3EDEA9BE7CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878717D8-3370-4706-B447-DCE6E306BF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E78D5C96-D697-47EB-A166-A13FF6F6FF77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>email</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>M@il@n997</t>
+  </si>
+  <si>
+    <t>phcvuong@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,12 +445,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="E4" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{DABAA4B3-CC24-452A-A66E-C4C394E3BC03}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/at-project-template/src/test/resources/users.xlsx
+++ b/at-project-template/src/test/resources/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mai Hoang Lan\IVIETTECH\AUTOMATION_TESTING\at-project-template\at-project-template\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878717D8-3370-4706-B447-DCE6E306BF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9DC01F-0FA3-4E36-A865-EED829093D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E78D5C96-D697-47EB-A166-A13FF6F6FF77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>email</t>
   </si>
@@ -51,24 +51,22 @@
   </si>
   <si>
     <t>phcvuong@gmail.com</t>
+  </si>
+  <si>
+    <t>vyvanviet@gmail.com</t>
+  </si>
+  <si>
+    <t>Abc123!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,17 +89,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,9 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27529C00-9563-4A75-BEED-CE8766FD385A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -454,14 +447,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{DABAA4B3-CC24-452A-A66E-C4C394E3BC03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>